--- a/biology/Botanique/Agrostide_de_Mertens/Agrostide_de_Mertens.xlsx
+++ b/biology/Botanique/Agrostide_de_Mertens/Agrostide_de_Mertens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrostis mertensii est une espèce de chiendent du genre Agrostis appartenant à la famille des Poaceae que l'on trouve dans les régions arctiques et à l'étage subalpin de certaines montagnes d'Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Histoire
-Cette espèce, collectée pendant l'expédition Lütke (1826-1829) par Karl Heinrich Mertens à qui elle doit son nom, est d'abord rangée en 1836[3] comme sous-espèce de l'espèce décrite par Linné, Agrostis canina, sous le nom d'agrostis canina subsp. mertensii par Carl Bernhard von Trinius (1778-1844), puis elle est reconnue comme espèce à part entière par Otto Kuntze en 1898.
+Cette espèce, collectée pendant l'expédition Lütke (1826-1829) par Karl Heinrich Mertens à qui elle doit son nom, est d'abord rangée en 1836 comme sous-espèce de l'espèce décrite par Linné, Agrostis canina, sous le nom d'agrostis canina subsp. mertensii par Carl Bernhard von Trinius (1778-1844), puis elle est reconnue comme espèce à part entière par Otto Kuntze en 1898.
 Synonymes
 Agrostis bakeri Rydb.
 Agrostis borealis Hartman
